--- a/LampGame/LampGame/stagedata/Stage4.xlsx
+++ b/LampGame/LampGame/stagedata/Stage4.xlsx
@@ -75,10 +75,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -90,7 +90,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,9 +98,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,7 +552,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR14" sqref="BR14"/>
+      <selection activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -595,9 +592,9 @@
         <v>0</v>
       </c>
       <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2">
         <v>0</v>
       </c>
       <c r="N1" s="1">
@@ -817,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="CH1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI1" s="1">
         <v>0</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="CO1" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP1" s="1">
         <v>0</v>
@@ -897,9 +894,9 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="1">
@@ -921,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -1047,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="1">
         <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="1">
         <v>0</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CI2" s="1">
         <v>0</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
         <v>0</v>
@@ -1199,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1223,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1313,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1349,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="1">
         <v>0</v>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CI3" s="1">
         <v>0</v>
@@ -1442,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="CO3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
         <v>0</v>
@@ -1501,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1525,64 +1522,64 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="1">
         <v>0</v>
@@ -1603,127 +1600,127 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="1">
         <v>5</v>
       </c>
-      <c r="AY4" s="1">
-        <v>8</v>
-      </c>
-      <c r="AZ4" s="1">
+      <c r="CA4" s="1">
         <v>5</v>
       </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
+      <c r="CB4" s="1">
         <v>5</v>
       </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
       <c r="CC4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI4" s="1">
         <v>0</v>
@@ -1744,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="CO4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="1">
         <v>0</v>
@@ -1803,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1826,84 +1823,84 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
         <v>5</v>
       </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
       <c r="AT5" s="1">
         <v>0</v>
       </c>
@@ -1917,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1946,17 +1943,17 @@
       <c r="BG5" s="1">
         <v>0</v>
       </c>
-      <c r="BH5" s="3">
+      <c r="BH5" s="1">
         <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>0</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1964,7 +1961,7 @@
       <c r="BM5" s="1">
         <v>0</v>
       </c>
-      <c r="BN5" s="3">
+      <c r="BN5" s="1">
         <v>0</v>
       </c>
       <c r="BO5" s="1">
@@ -1977,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>0</v>
@@ -2025,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="CH5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI5" s="1">
         <v>0</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
         <v>0</v>
@@ -2105,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2123,107 +2120,107 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
         <v>5</v>
       </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="AS6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
         <v>6</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
         <v>3</v>
       </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
       <c r="AZ6" s="1">
         <v>0</v>
       </c>
@@ -2236,44 +2233,44 @@
       <c r="BC6" s="1">
         <v>0</v>
       </c>
-      <c r="BD6" s="1">
-        <v>5</v>
+      <c r="BD6" s="2">
+        <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM6" s="1">
         <v>0</v>
       </c>
-      <c r="BN6" s="3">
+      <c r="BN6" s="1">
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="1">
         <v>0</v>
@@ -2282,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
         <v>0</v>
@@ -2323,11 +2320,11 @@
       <c r="CF6" s="1">
         <v>0</v>
       </c>
-      <c r="CG6" s="1">
-        <v>0</v>
+      <c r="CG6" s="2">
+        <v>8</v>
       </c>
       <c r="CH6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6" s="1">
         <v>0</v>
@@ -2348,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
         <v>0</v>
@@ -2407,88 +2404,88 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
         <v>5</v>
       </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
         <v>0</v>
@@ -2497,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="1">
         <v>0</v>
@@ -2518,76 +2515,76 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1</v>
       </c>
       <c r="BM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
         <v>0</v>
@@ -2605,31 +2602,31 @@
         <v>0</v>
       </c>
       <c r="BZ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI7" s="1">
         <v>0</v>
@@ -2650,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="1">
         <v>0</v>
@@ -2714,7 +2711,7 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="1">
@@ -2733,82 +2730,82 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
         <v>5</v>
       </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>1</v>
-      </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -2835,77 +2832,77 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1">
         <v>5</v>
       </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>5</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
       <c r="BZ8" s="1">
         <v>0</v>
       </c>
@@ -2913,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="1">
         <v>0</v>
@@ -2931,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI8" s="1">
         <v>0</v>
@@ -2952,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="1">
         <v>0</v>
@@ -3017,17 +3014,17 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
@@ -3035,98 +3032,98 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
         <v>5</v>
       </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
+      <c r="AP9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
         <v>3</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
       <c r="AY9" s="1">
         <v>0</v>
       </c>
@@ -3134,106 +3131,106 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
         <v>5</v>
       </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
+      <c r="BY9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
         <v>3</v>
       </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>5</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>6</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>5</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>0</v>
-      </c>
       <c r="CH9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CI9" s="1">
         <v>0</v>
@@ -3254,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP9" s="1">
         <v>0</v>
@@ -3352,34 +3349,34 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3469,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
         <v>1</v>
@@ -3541,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO10" s="1">
         <v>1</v>
@@ -3582,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO1 A2:W4 A5:Z6 BA5:BJ5 BA4:CV4 AA5:AL5 X3:AL4 BA3:CO3 AA6:CV6 X2:CO2 BL5:CV5 BK5:BK8 AM3:AZ5 A7:CV10">
+  <conditionalFormatting sqref="G3:CV3 A3:F6 G4:AM6 AN4:CV10 A7:AM10 A1:CV2">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3602,7 +3599,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BL3:CV3 BJ3:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9 BI7:BJ9 BH5 BM2:CV2">
+  <conditionalFormatting sqref="CN4:CN9 BK4:BK9">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3622,7 +3619,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI4">
+  <conditionalFormatting sqref="AC3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
